--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\PetrolTrulyUnlimited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F672E2-8791-4D6D-B359-84AC7800E7DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A790C-07EA-4597-913D-E920925C6034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C28777FE-C02A-449A-86E0-F4A180F0544D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Petrol Truly Unlimited</t>
   </si>
@@ -49,13 +49,211 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Start program</t>
+  </si>
+  <si>
+    <t>Program starts without any error</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Close program after at least one vehicle finnishes fueling</t>
+  </si>
+  <si>
+    <t>Program closes and creates file with data correctly</t>
+  </si>
+  <si>
+    <t>On first run it creates the files without any error</t>
+  </si>
+  <si>
+    <t>It saves new receipt files on close</t>
+  </si>
+  <si>
+    <t>Appends data to receipt file</t>
+  </si>
+  <si>
+    <t>Close program and file has data appended in the end</t>
+  </si>
+  <si>
+    <t>In settings that has min/max write a longer time on the min than on the max</t>
+  </si>
+  <si>
+    <t>On settings write: Spawn Time: min:10000 max:1000. And Time wait:min 10000 max: 1000</t>
+  </si>
+  <si>
+    <t>Closes the settings page without any error and correct values</t>
+  </si>
+  <si>
+    <t>In settings "Default Values" button sets all the values to default</t>
+  </si>
+  <si>
+    <t>Press the Default Values Button</t>
+  </si>
+  <si>
+    <t>Changes all the values from the textboxes to the default ones</t>
+  </si>
+  <si>
+    <t>User can't write values too low that will break the program</t>
+  </si>
+  <si>
+    <t>Write 0 in all os the fields</t>
+  </si>
+  <si>
+    <t>That textbox changes the value to the minimum accepted</t>
+  </si>
+  <si>
+    <t>In settings the "Receipt Folder" button opens the windows file explorer on the correct location</t>
+  </si>
+  <si>
+    <t>Press the Receipt Folder Button</t>
+  </si>
+  <si>
+    <t>Opens the windows File Explorer on the correct location</t>
+  </si>
+  <si>
+    <t>In settings the reload button refreshes all statistics labels</t>
+  </si>
+  <si>
+    <t>Press the refresh image</t>
+  </si>
+  <si>
+    <t>Refreshes all data related to statistics</t>
+  </si>
+  <si>
+    <t>Press in all the textboxes in settings</t>
+  </si>
+  <si>
+    <t>In settings clicking on the textboxes the correct information is shown</t>
+  </si>
+  <si>
+    <t>Correct information is shown</t>
+  </si>
+  <si>
+    <t>In settings all textboxes have the correct validation</t>
+  </si>
+  <si>
+    <t>That data is not shown</t>
+  </si>
+  <si>
+    <t>Press the return button</t>
+  </si>
+  <si>
+    <t>Returns to the main window without any changes</t>
+  </si>
+  <si>
+    <t>In settings pressing the save button saves everything and returns to the main window with the changes</t>
+  </si>
+  <si>
+    <t>In settings pressing the return button returns to the main window without any changes</t>
+  </si>
+  <si>
+    <t>Press the save button</t>
+  </si>
+  <si>
+    <t>Returns to the main window with the changes</t>
+  </si>
+  <si>
+    <t>The list of receipts doesn't get longer than 200 receipts</t>
+  </si>
+  <si>
+    <t>The list of receipts shouldn't get bigger than 5</t>
+  </si>
+  <si>
+    <t>In code change the max receipts to 5 (After testing change to 200)</t>
+  </si>
+  <si>
+    <t>All receipts should be written on the file, not just the 200</t>
+  </si>
+  <si>
+    <t>The todays file should write more than 5 receipts</t>
+  </si>
+  <si>
+    <t>Vehicle spawn time should be random between a predefined limit</t>
+  </si>
+  <si>
+    <t>Change that time in settings and see if that changes the spawn rate</t>
+  </si>
+  <si>
+    <t>A new vehicle should spawn periodically</t>
+  </si>
+  <si>
+    <t>See if new vehicles spawn</t>
+  </si>
+  <si>
+    <t>Vehicles should spawn with every parameter correct</t>
+  </si>
+  <si>
+    <t>Vehicles should spawn faster or slower between that time</t>
+  </si>
+  <si>
+    <t>See if the spawned vehicles have some consistent similarity</t>
+  </si>
+  <si>
+    <t>All vehicles are random</t>
+  </si>
+  <si>
+    <t>All vehicles spawn with random parameters</t>
+  </si>
+  <si>
+    <t>Vehicles are sent to the correct pump</t>
+  </si>
+  <si>
+    <t>See if the vehicles follow the correct path to the pump (Pump order: 3,2,1,6,5,4,9,8,7)</t>
+  </si>
+  <si>
+    <t>Vehicles follow the pump order whenever its possible</t>
+  </si>
+  <si>
+    <t>Vehicles don't enter pumps they can't</t>
+  </si>
+  <si>
+    <t>A new vehicle can't enter pump 2 or 3 if the pump 1 has a vehicle in it</t>
+  </si>
+  <si>
+    <t>The vehicle waits, or goes to other pump that is not in the same row of the blocked one</t>
+  </si>
+  <si>
+    <t>Try to write data that isn't supposed to be on the textbox</t>
+  </si>
+  <si>
+    <t>Close program after at least one vehicle finnishes fuelling</t>
+  </si>
+  <si>
+    <t>Vehicles dont take more than the maximum fueling time</t>
+  </si>
+  <si>
+    <t>See if any vehicle takes more than 18 seconds to fuel (default max time)</t>
+  </si>
+  <si>
+    <t>Vehicles take 18 seconds or less to fuel</t>
+  </si>
+  <si>
+    <t>The pumps are dispensing the correct type of fuel</t>
+  </si>
+  <si>
+    <t>When a vehicle enters the correct fuel is dispensed</t>
+  </si>
+  <si>
+    <t>Pumps dispense the correct fuel</t>
+  </si>
+  <si>
+    <t>Vehicles can leave after fueling</t>
+  </si>
+  <si>
+    <t>After a vehicle fuels he can leave</t>
+  </si>
+  <si>
+    <t>The vehicle leavs the pump making it available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +261,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -99,13 +318,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,247 +649,483 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="4" width="24.7109375" customWidth="1"/>
+    <col min="2" max="4" width="45.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -676,5 +1136,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\PetrolTrulyUnlimited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3A790C-07EA-4597-913D-E920925C6034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E659C-6D5A-4AE3-911F-FFFAC701BE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C28777FE-C02A-449A-86E0-F4A180F0544D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>Petrol Truly Unlimited</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Try to write data that isn't supposed to be on the textbox</t>
   </si>
   <si>
-    <t>Close program after at least one vehicle finnishes fuelling</t>
-  </si>
-  <si>
     <t>Vehicles dont take more than the maximum fueling time</t>
   </si>
   <si>
@@ -247,6 +244,57 @@
   </si>
   <si>
     <t>The vehicle leavs the pump making it available</t>
+  </si>
+  <si>
+    <t>After the vehicle leaves the receipt is saved</t>
+  </si>
+  <si>
+    <t>Wait for a vehicle leaves the pump and look for a receipt</t>
+  </si>
+  <si>
+    <t>A new receipt is saved</t>
+  </si>
+  <si>
+    <t>Pumps information is updated</t>
+  </si>
+  <si>
+    <t>Everytime a vehicle enters or leaved the stats is updated</t>
+  </si>
+  <si>
+    <t>Each car is spawned with random information</t>
+  </si>
+  <si>
+    <t>Move the mouse over the pump to see the statistics of each pump</t>
+  </si>
+  <si>
+    <t>Move the mouse over the vehicle to see the information of each vehicle</t>
+  </si>
+  <si>
+    <t>A popup should appear with the vehicle information</t>
+  </si>
+  <si>
+    <t>The queue should have information updated everytime</t>
+  </si>
+  <si>
+    <t>Move the mouse over the queue to see the statistics</t>
+  </si>
+  <si>
+    <t>A popup should appear with the queue information</t>
+  </si>
+  <si>
+    <t>Each car in the pump should open a popup with information about the vehicle</t>
+  </si>
+  <si>
+    <t>Move the mouse over the car that is in the pump</t>
+  </si>
+  <si>
+    <t>Should be possible to scroll through the last 200 receipts</t>
+  </si>
+  <si>
+    <t>When the receipt list has enough items a scroll bar should appear and we it should be able to scroll</t>
+  </si>
+  <si>
+    <t>List should be able to scroll</t>
   </si>
 </sst>
 </file>
@@ -648,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96167F48-34D8-4B94-8371-FDC101FE25AA}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -1013,13 +1061,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
@@ -1030,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
@@ -1047,71 +1095,119 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
